--- a/tests/fixtures_files/fs-PotenteAsegurado-singleperson.xlsx
+++ b/tests/fixtures_files/fs-PotenteAsegurado-singleperson.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t xml:space="preserve">offset=0 count=20 +surname:potente~ +mother_givenname:andrea~ +mother_surname:asegurado~ +record_country:Spain </t>
   </si>
@@ -484,7 +484,7 @@
   <dimension ref="A2:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -609,6 +609,9 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" t="s">
         <v>39</v>
       </c>
